--- a/public/data/NhaCungCap.xlsx
+++ b/public/data/NhaCungCap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\FileImportMau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-gdvn-hethongquanly\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036ABEB6-57F6-44B9-8E7B-1ADEF08EC7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC432C-035B-41A2-854A-C71C5083DD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -48,58 +48,67 @@
     <t>Người đại diện</t>
   </si>
   <si>
-    <t>Thông tin thêm</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
     <t>Tỉnh thành</t>
   </si>
   <si>
-    <t>Lưu ý : Tên công ty và mã số thuế tỉnh thành là bắt buộc nhập</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
     <t xml:space="preserve"> NHÀ CUNG CẤP</t>
   </si>
   <si>
-    <t>CÔNG TY CỔ PHẦN GIÁO DỤC ME KONG</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN GIÁO DỤC MIỀN ĐÔNG</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN GIÁO DỤC CÁT VÀNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cần thơ</t>
-  </si>
-  <si>
-    <t>Thành phố hồ chí minh</t>
-  </si>
-  <si>
-    <t>Khánh Hòa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52 Định Cư, Tân Lập, Nha Trang, Khánh Hòa</t>
-  </si>
-  <si>
-    <t>220A-C Nguyễn Đình Chiểu, Phường Võ Thị Sáu, Quận 3, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
-    <t>31A1, Khu vực 5, Phường An Bình, Quận Ninh Kiều, Thành phố Cần Thơ, Việt Nam</t>
-  </si>
-  <si>
-    <t>ĐỖ NGUYỄN THU PHƯƠNG</t>
-  </si>
-  <si>
-    <t>CAO QUỐC TUÂN</t>
-  </si>
-  <si>
-    <t>VÕ XUÂN VINH</t>
+    <t>Nhân viên phụ trách</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Loại nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Lưu ý : Tên công ty và  tỉnh thành là bắt buộc nhập</t>
+  </si>
+  <si>
+    <t>NĐD Chức vụ</t>
+  </si>
+  <si>
+    <t>NĐD Số điện thoại</t>
+  </si>
+  <si>
+    <t>Trương Phúc Vĩnh</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>MT0992783</t>
+  </si>
+  <si>
+    <t>Công ty A</t>
+  </si>
+  <si>
+    <t>cà mau</t>
   </si>
 </sst>
 </file>
@@ -520,28 +529,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA987291-4EE6-4FC6-B1B7-326C68B1DB13}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="53.28515625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="26.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="73.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="68.140625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="49" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="43.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="36.85546875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="4"/>
+    <col min="16" max="16" width="49" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -549,8 +564,14 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,24 +582,42 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -598,73 +637,97 @@
       <c r="G5" s="2">
         <v>6</v>
       </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1801284605</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>988372390</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5">
+        <v>988375755</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>313487543</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4201974835</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
